--- a/data/trans_camb/P1435-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1435-Estudios-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.583826813413473</v>
+        <v>-3.633404591458868</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.364683480694027</v>
+        <v>-4.286144346383047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.416506277136552</v>
+        <v>-3.340540573805773</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.331149478332409</v>
+        <v>-1.376499027396008</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.182319015188443</v>
+        <v>-2.133005938236417</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.9825460171080916</v>
+        <v>-0.7636871636926246</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8430274766743848</v>
+        <v>-0.8509053968910135</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.973636688834333</v>
+        <v>-0.970959323379448</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7976346970033655</v>
+        <v>-0.7950026693012509</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.4569788310299546</v>
+        <v>-0.4847267815074383</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.7268113458079858</v>
+        <v>-0.706632811084432</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3024580520423861</v>
+        <v>-0.2322789611518954</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>-8.02553191109598</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.567002733500718</v>
+        <v>-3.56700273350072</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.653626100252465</v>
+        <v>-6.918019862643791</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.694744444136624</v>
+        <v>-9.603379111675688</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.581453825056379</v>
+        <v>-5.342864319810327</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-3.050339417287195</v>
+        <v>-3.184605428191449</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.505138912760311</v>
+        <v>-6.372129048273051</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.78874665328039</v>
+        <v>-1.738680548698592</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>-0.7845410301813613</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3486946448161618</v>
+        <v>-0.348694644816162</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5933355866584298</v>
+        <v>-0.6025381584412529</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8470787925693418</v>
+        <v>-0.8435130124786443</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4782373046788903</v>
+        <v>-0.4723121130145608</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3331960674361873</v>
+        <v>-0.3379439924378978</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.704335614968459</v>
+        <v>-0.7014124806299278</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1715958596630886</v>
+        <v>-0.1814532313189699</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.970748564588298</v>
+        <v>-8.276919727696491</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.70077705556066</v>
+        <v>-10.85701275974207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.379725424928973</v>
+        <v>-4.792039787177284</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.6455009200049463</v>
+        <v>-0.7972889518780243</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.98367807985617</v>
+        <v>-4.356780409115061</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.591694254090916</v>
+        <v>2.660109375086833</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6091724077277247</v>
+        <v>-0.6286068627783671</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8171675238911051</v>
+        <v>-0.8067011863332192</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3210663309588042</v>
+        <v>-0.3674050190956428</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.05377460844108437</v>
+        <v>-0.06947977827446808</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.4440529996481743</v>
+        <v>-0.4832501050509089</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3288960138291385</v>
+        <v>0.3003676356951948</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>-5.818898112215005</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.539547661747327</v>
+        <v>-1.539547661747325</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.944480795749111</v>
+        <v>-4.877066154334994</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.901281267502394</v>
+        <v>-6.867463396541456</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.726112070763763</v>
+        <v>-2.78693302072726</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-2.626863204712578</v>
+        <v>-2.723747783045354</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.832306453904963</v>
+        <v>-4.8328340173204</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.2491669721757651</v>
+        <v>-0.4258228243163507</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>-0.7558523266917709</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.199981278197984</v>
+        <v>-0.1999812781979837</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5909847731268401</v>
+        <v>-0.5851288190853857</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8158747678215746</v>
+        <v>-0.8157253288820501</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3205165026660537</v>
+        <v>-0.3265981482015153</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3728928027922058</v>
+        <v>-0.3829350028183663</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.686973385795685</v>
+        <v>-0.6756746415973359</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.02962237344123473</v>
+        <v>-0.05575966772443552</v>
       </c>
     </row>
     <row r="28">
